--- a/Healthcare/NVO.xlsx
+++ b/Healthcare/NVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0B75E-F664-D74C-AA1C-7F7905AFBC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D069E0-4A49-F841-86BE-CC936D6F1C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,9 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>148.15</v>
     <v>94.731300000000005</v>
-    <v>0.43009999999999998</v>
-    <v>-4.7699999999999996</v>
-    <v>-4.3311999999999996E-2</v>
+    <v>0.41420000000000001</v>
+    <v>2.27</v>
+    <v>2.1545000000000002E-2</v>
+    <v>-0.12</v>
+    <v>-1.1150000000000001E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>69260</v>
@@ -1952,24 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, 2880 DK</v>
-    <v>108.75</v>
+    <v>107.74</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45602.935105659373</v>
+    <v>45604.041520995313</v>
     <v>0</v>
-    <v>105.03</v>
-    <v>368625500000</v>
+    <v>105.59</v>
+    <v>372418700000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>108.27</v>
-    <v>36.502499999999998</v>
-    <v>110.13</v>
+    <v>106.1</v>
+    <v>33.985700000000001</v>
     <v>105.36</v>
+    <v>107.63</v>
+    <v>107.51</v>
     <v>3390128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>36096</v>
-    <v>4867470</v>
+    <v>8363150</v>
+    <v>5110912</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2845,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>105.36</v>
+        <v>107.63</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>8.4813634585739592</v>
+        <v>8.5686376918298315</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.3311999999999996E-2</v>
+        <v>2.1545000000000002E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>24.208675379260523</v>
+        <v>24.457785512576343</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>368625500000</v>
+        <v>372418700000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.5730029528613726E-2</v>
+        <v>3.5366108092853552E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.43009999999999998</v>
+        <v>0.41420000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3055,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.19506857092714647</v>
+        <v>-0.2120451977411888</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
